--- a/Balanceo_Mod.xlsx
+++ b/Balanceo_Mod.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF80AADF-8580-498C-8FA8-8F71DA8656BB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4305B803-2381-4C79-8238-3E45FB881D9F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12210" yWindow="3780" windowWidth="17280" windowHeight="9225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Armas" sheetId="1" r:id="rId1"/>
+    <sheet name="NIvel1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="41">
   <si>
     <t>Nombre</t>
   </si>
@@ -128,13 +129,34 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>Scores Nivel</t>
+  </si>
+  <si>
+    <t>Enemigos x Arena</t>
+  </si>
+  <si>
+    <t>Gráfica Enemigos x Arena</t>
+  </si>
+  <si>
+    <t>Puntos Enemigos</t>
+  </si>
+  <si>
+    <t>Tiempos / Puntos</t>
+  </si>
+  <si>
+    <t>Golpes/Puntos</t>
+  </si>
+  <si>
+    <t>Enemigos x Arena (Pruebas)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,8 +171,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,8 +192,13 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -171,12 +206,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -185,10 +273,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Salida" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -294,7 +399,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$G$20:$G$25</c:f>
+              <c:f>NIvel1!$E$3:$E$8</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -320,7 +425,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$H$20:$H$25</c:f>
+              <c:f>NIvel1!$F$3:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -347,7 +452,327 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EB25-401A-9D97-054CAFAEE4C4}"/>
+              <c16:uniqueId val="{00000000-4F4B-4B72-A5F0-C6F70D2BF167}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="598661407"/>
+        <c:axId val="539252367"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="598661407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539252367"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="539252367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598661407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Enemigos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>NIvel1!$E$3:$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>A1 </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>A4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>A5 (Fake)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>A6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>NIvel1!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-74DF-4B63-BDD8-12213C1B2A2C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -563,6 +988,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1066,31 +1531,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>420780</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>105614</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>735105</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>181814</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1160DC60-05AC-4393-9753-01479A34BF3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A7804E7-DDAC-43F7-92F6-4BB476FC63EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1099,6 +2069,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>403411</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>717736</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85A9B180-455B-4C3A-B328-CD1E5A84F62E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1412,10 +2420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1842,15 +2850,15 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <f t="shared" ref="B11:D11" si="0">(B4*B8)/B7</f>
+        <f>(B4*B8)/B7</f>
         <v>33.333333333333336</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f>(C4*C8)/C7</f>
         <v>40</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f>(D4*D8)/D7</f>
         <v>33.333333333333336</v>
       </c>
       <c r="E11">
@@ -1861,15 +2869,15 @@
         <v>8</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H11:J11" si="1">(H4*H8)/H7</f>
+        <f>(H4*H8)/H7</f>
         <v>66.666666666666671</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
+        <f>(I4*I8)/I7</f>
         <v>50</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f>(J4*J8)/J7</f>
         <v>40</v>
       </c>
       <c r="K11">
@@ -1880,15 +2888,15 @@
         <v>8</v>
       </c>
       <c r="N11">
-        <f t="shared" ref="N11:P11" si="2">(N4*N8)/N7</f>
+        <f>(N4*N8)/N7</f>
         <v>100</v>
       </c>
       <c r="O11">
-        <f t="shared" si="2"/>
+        <f>(O4*O8)/O7</f>
         <v>50</v>
       </c>
       <c r="P11">
-        <f t="shared" si="2"/>
+        <f>(P4*P8)/P7</f>
         <v>38.46153846153846</v>
       </c>
       <c r="Q11">
@@ -1901,15 +2909,15 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <f t="shared" ref="B12:D12" si="3">(B4*B8)/B7 * (1-(B6*2/100))</f>
+        <f>(B4*B8)/B7 * (1-(B6*2/100))</f>
         <v>32.666666666666671</v>
       </c>
       <c r="C12">
-        <f t="shared" si="3"/>
+        <f>(C4*C8)/C7 * (1-(C6*2/100))</f>
         <v>40</v>
       </c>
       <c r="D12">
-        <f t="shared" si="3"/>
+        <f>(D4*D8)/D7 * (1-(D6*2/100))</f>
         <v>32.666666666666671</v>
       </c>
       <c r="E12">
@@ -1920,15 +2928,15 @@
         <v>15</v>
       </c>
       <c r="H12">
-        <f t="shared" ref="H12:J12" si="4">(H4*H8)/H7 * (1-(H6*2/100))</f>
+        <f>(H4*H8)/H7 * (1-(H6*2/100))</f>
         <v>65.333333333333343</v>
       </c>
       <c r="I12">
-        <f t="shared" si="4"/>
+        <f>(I4*I8)/I7 * (1-(I6*2/100))</f>
         <v>50</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="4"/>
+        <f>(J4*J8)/J7 * (1-(J6*2/100))</f>
         <v>39.200000000000003</v>
       </c>
       <c r="K12" s="2">
@@ -1939,15 +2947,15 @@
         <v>15</v>
       </c>
       <c r="N12" s="2">
-        <f t="shared" ref="N12:P12" si="5">(N4*N8)/N7 * (1-(N6*2/100))</f>
+        <f>(N4*N8)/N7 * (1-(N6*2/100))</f>
         <v>98</v>
       </c>
       <c r="O12">
-        <f t="shared" si="5"/>
+        <f>(O4*O8)/O7 * (1-(O6*2/100))</f>
         <v>50</v>
       </c>
       <c r="P12" s="2">
-        <f t="shared" si="5"/>
+        <f>(P4*P8)/P7 * (1-(P6*2/100))</f>
         <v>37.692307692307693</v>
       </c>
       <c r="Q12">
@@ -1970,106 +2978,346 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21">
-        <v>5500</v>
-      </c>
-      <c r="G21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22">
-        <v>5100</v>
-      </c>
-      <c r="G22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23">
-        <v>4800</v>
-      </c>
-      <c r="G23" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24">
-        <v>4350</v>
-      </c>
-      <c r="G24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25">
-        <v>4100</v>
-      </c>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26">
-        <f>SUM(H20:H25)</f>
-        <v>45</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G14:Q14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
   <tableParts count="3">
+    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{639FC6C3-FB21-4581-A4D1-596F410DB05A}">
+  <dimension ref="A2:L29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="I2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <f>C13+C17+C24</f>
+        <v>6000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <f>C13+C18+C25-50</f>
+        <v>5600</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <f>C13+C19+C26</f>
+        <v>5300</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <f>C13+C20+C27</f>
+        <v>4950</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <f>C13+C21+C28</f>
+        <v>4600</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <f>SUM(F3:F8)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>F9</f>
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <f>A13*B13</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="C17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="C18">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.28819444444444448</v>
+      </c>
+      <c r="C19">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.30902777777777779</v>
+      </c>
+      <c r="C20">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <f>15</f>
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>500</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>400</v>
+      </c>
+      <c r="F25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>300</v>
+      </c>
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>40</v>
+      </c>
+      <c r="C27">
+        <v>200</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29">
+        <f>SUM(G23:G28)</f>
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:C16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>